--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="205">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -333,9 +336,6 @@
   </si>
   <si>
     <t>The county code for the address</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>latitude</t>
@@ -781,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -857,90 +857,84 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1002,590 +996,590 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -1599,104 +1593,104 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>109</v>
@@ -1710,104 +1704,104 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>112</v>
@@ -1821,77 +1815,77 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -1900,17 +1894,17 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>115</v>
@@ -1934,26 +1928,26 @@
         <v>120</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
         <v>121</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>122</v>
@@ -1965,34 +1959,34 @@
         <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>125</v>
@@ -2004,7 +1998,7 @@
         <v>127</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -2013,20 +2007,20 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>115</v>
@@ -2045,26 +2039,26 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
         <v>132</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
         <v>122</v>
@@ -2076,34 +2070,34 @@
         <v>134</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
@@ -2112,7 +2106,7 @@
         <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>136</v>
@@ -2124,26 +2118,26 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>115</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>138</v>
@@ -2158,65 +2152,65 @@
         <v>141</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
         <v>142</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>143</v>
@@ -2225,7 +2219,7 @@
         <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>145</v>
@@ -2237,26 +2231,26 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>115</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>147</v>
@@ -2267,65 +2261,65 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>149</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>150</v>
@@ -2350,22 +2344,22 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>115</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>156</v>
@@ -2376,65 +2370,65 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>158</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>159</v>
@@ -2459,22 +2453,22 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>115</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>165</v>
@@ -2487,65 +2481,65 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>168</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>169</v>
@@ -2554,10 +2548,10 @@
         <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -2570,22 +2564,22 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>115</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>173</v>
@@ -2596,65 +2590,65 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>175</v>
@@ -2679,22 +2673,22 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>115</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>181</v>
@@ -2705,65 +2699,65 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>183</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>179</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>184</v>
@@ -2784,26 +2778,26 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>115</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>189</v>
@@ -2816,65 +2810,65 @@
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>188</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>192</v>
@@ -2895,20 +2889,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>115</v>
@@ -2927,65 +2921,65 @@
         <v>200</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>201</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>196</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>202</v>
@@ -2997,7 +2991,7 @@
         <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -954,41 +954,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.62109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="39.66015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="39.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.51171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="19.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="34.2578125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="27.0546875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-address.xlsx
+++ b/StructureDefinition-cdm-address.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-address</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-address</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -259,147 +259,147 @@
 </t>
   </si>
   <si>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Address.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>countyCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/county-code}
+</t>
+  </si>
+  <si>
+    <t>The county code for the address</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/latitude}
+</t>
+  </si>
+  <si>
+    <t>Latitude for the address</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/longitude}
+</t>
+  </si>
+  <si>
+    <t>Longitude for the address</t>
+  </si>
+  <si>
+    <t>regionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/region-code}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the geographic region of the address</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>XAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Address.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Address.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>countyCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/county-code}
-</t>
-  </si>
-  <si>
-    <t>The county code for the address</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/latitude}
-</t>
-  </si>
-  <si>
-    <t>Latitude for the address</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/longitude}
-</t>
-  </si>
-  <si>
-    <t>Longitude for the address</t>
-  </si>
-  <si>
-    <t>regionCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/region-code}
-</t>
-  </si>
-  <si>
-    <t>Customer-specific code for the geographic region of the address</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
   </si>
   <si>
     <t>XAD.7</t>
@@ -1209,13 +1209,13 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>28</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1237,25 +1237,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1306,25 +1306,25 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>74</v>
@@ -1335,11 +1335,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1358,16 +1358,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1405,19 +1405,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1429,13 +1429,13 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>74</v>
@@ -1459,7 +1459,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -1471,13 +1471,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1528,7 +1528,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1540,7 +1540,7 @@
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>74</v>
@@ -1570,7 +1570,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1582,13 +1582,13 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1639,7 +1639,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -1651,7 +1651,7 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>74</v>
@@ -1681,7 +1681,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -1693,13 +1693,13 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1750,7 +1750,7 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1762,7 +1762,7 @@
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>74</v>
@@ -1792,7 +1792,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -1804,13 +1804,13 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1861,7 +1861,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -1873,7 +1873,7 @@
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1901,31 +1901,31 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="I9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J9" t="s" s="2">
+      <c r="K9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>74</v>
@@ -1938,55 +1938,55 @@
         <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W9" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="T9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W9" t="s" s="2">
+      <c r="X9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="X9" t="s" s="2">
+      <c r="Y9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>125</v>
@@ -2014,7 +2014,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
@@ -2023,10 +2023,10 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>129</v>
@@ -2061,7 +2061,7 @@
         <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s" s="2">
         <v>133</v>
@@ -2091,13 +2091,13 @@
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
@@ -2125,19 +2125,19 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>138</v>
@@ -2204,13 +2204,13 @@
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>143</v>
@@ -2247,10 +2247,10 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>147</v>
@@ -2319,7 +2319,7 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>150</v>
@@ -2347,19 +2347,19 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>156</v>
@@ -2422,13 +2422,13 @@
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>159</v>
@@ -2456,19 +2456,19 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>165</v>
@@ -2533,13 +2533,13 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>169</v>
@@ -2567,19 +2567,19 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>173</v>
@@ -2642,13 +2642,13 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>175</v>
@@ -2676,19 +2676,19 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>181</v>
@@ -2751,13 +2751,13 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>184</v>
@@ -2785,19 +2785,19 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>189</v>
@@ -2862,13 +2862,13 @@
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>192</v>
@@ -2896,7 +2896,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -2905,7 +2905,7 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>197</v>
@@ -2973,13 +2973,13 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>202</v>
